--- a/biology/Microbiologie/Hyaloperonospora_parasitica/Hyaloperonospora_parasitica.xlsx
+++ b/biology/Microbiologie/Hyaloperonospora_parasitica/Hyaloperonospora_parasitica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mildiou des crucifères
-Hyaloperonospora parasitica,  le Mildiou des crucifères[1], est une espèce d'oomycètes phytopathogènes de la famille des Peronosporaceae. C'est l'un des agents pathogènes du mildiou. Il a pour hôtes les crucifères telles que le chou et Arabidopsis thaliana. À l'heure actuelle, c'est un organisme à hôte obligatoire, c'est-à-dire qu'on ne parvient pas à le cultiver sur milieu de culture artificiel.
+Hyaloperonospora parasitica,  le Mildiou des crucifères, est une espèce d'oomycètes phytopathogènes de la famille des Peronosporaceae. C'est l'un des agents pathogènes du mildiou. Il a pour hôtes les crucifères telles que le chou et Arabidopsis thaliana. À l'heure actuelle, c'est un organisme à hôte obligatoire, c'est-à-dire qu'on ne parvient pas à le cultiver sur milieu de culture artificiel.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Impact économique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En agriculture, il génère des pertes non négligeables sur les récoltes de colza, du chou et autres brassicacées.
 </t>
@@ -543,9 +557,11 @@
           <t>Usage scientifique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est utilisé dans le monde de la recherche en phytopathologie, car son développement est ni trop rapide ni trop lent (de l'ordre d'une semaine de conidiospore à conidiospore), et ses effets ne sont en général pas létaux pour la plante. Ainsi, il permet une mesure fine des degrés de résistance de la plante hôte en fonction des traitements appliqués[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est utilisé dans le monde de la recherche en phytopathologie, car son développement est ni trop rapide ni trop lent (de l'ordre d'une semaine de conidiospore à conidiospore), et ses effets ne sont en général pas létaux pour la plante. Ainsi, il permet une mesure fine des degrés de résistance de la plante hôte en fonction des traitements appliqués.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Liste des formes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (28 août 2014)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (28 août 2014) :
 forme Hyaloperonospora parasitica f. brassicae
 forme Hyaloperonospora parasitica f. raphani</t>
         </is>
@@ -606,12 +624,14 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Hyaloperonospora parasitica (Pers.) Constant., 2002[4],[5].
-L'espèce a été initialement classée dans le genre Botrytis sous le basionyme Botrytis parasitica Pers., 1796[4].
-Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Mildiou des crucifères[1].
-Hyaloperonospora parasitica a pour synonymes[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Hyaloperonospora parasitica (Pers.) Constant., 2002,.
+L'espèce a été initialement classée dans le genre Botrytis sous le basionyme Botrytis parasitica Pers., 1796.
+Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Mildiou des crucifères.
+Hyaloperonospora parasitica a pour synonymes :
 Botrytis parasitica Pers., 1796
 Mucor botrytis Sowerby, 1803
 Peronospora parasitica (Pers.) Tul., 1854
@@ -643,7 +663,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) Ovidiu Constantinescu et Jamshid Fatehi, « Peronospora-like fungi (Chromista, Peronosporales) parasitic on Brassicaceae and related hosts », Nova Hedwigia, vol. 74, no 3,‎ 1er mai 2002, p. 291-338 (ISSN 0029-5035 et 2363-7188, DOI 10.1127/0029-5035/2002/0074-0291)</t>
         </is>
